--- a/va_facility_data_2025-02-20/Franklin R. Sousley Campus - Facility Data.xlsx"; filename*=UTF-8''Franklin%20R.%20Sousley%20Campus%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Franklin R. Sousley Campus - Facility Data.xlsx"; filename*=UTF-8''Franklin%20R.%20Sousley%20Campus%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R1f29ca637c5d429bb59ae91524edc01e"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R21cc267e78874d22842221049e4a54b7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9884c2c74609412380af030835564fa2"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rfe6817d97b6f49fdbb86793d226d5d4b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R21489661d36248e08edbb9a4796fe588"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R57196ba699fa476c81203f1b65a8792d"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R690a2091914544a2be678a07e6fb665c"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R29e6a1b8f0f947c28d2bb8d1c12d3e3f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc179b34f2a444492b459f2504bd34c83"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R008d55e6fd8943b299b1cea96b0b4647"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd15caa9b49eb4a1d8e389581eab197c5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4c848f8f393448dc82984f60ed077830"/>
   </x:sheets>
 </x:workbook>
 </file>
